--- a/vignettes/power/power_screening_coded.xlsx
+++ b/vignettes/power/power_screening_coded.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/debruine/rproj/scienceverse/papercheck/vignettes/power/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F57C369-50A6-7A4E-8AFB-ED9170CC5B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB52861C-D9C0-A74C-8DAF-75AC8E2FF5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="25080" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3218,14 +3218,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L652"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A419" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P427" sqref="P427"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A466" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="147.83203125" customWidth="1"/>
+    <col min="1" max="1" width="116.33203125" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" customWidth="1"/>
     <col min="4" max="7" width="16.5" customWidth="1"/>
     <col min="12" max="12" width="10.83203125" style="3"/>
